--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CB97CB-A215-492E-9F80-BE506647913F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74CE92-EB7E-4005-87EF-9F2F70960085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
+    <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15630" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Jet</t>
   </si>
@@ -189,9 +189,6 @@
     <t>5/3</t>
   </si>
   <si>
-    <t>6/5</t>
-  </si>
-  <si>
     <t>5/3/5</t>
   </si>
   <si>
@@ -258,7 +255,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -652,12 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,28 +664,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,15 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -745,16 +709,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,6 +736,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,8 +748,38 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15405,7 +15402,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15422,120 +15419,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>50</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>200</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -15555,7 +15552,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15598,7 +15595,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -15621,10 +15618,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15657,12 +15654,12 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -15718,289 +15715,289 @@
         <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>56</v>
+      <c r="G26" s="22" t="s">
+        <v>55</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="L26" s="49" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="L26" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19">
+        <v>50</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="20">
+        <v>10</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="19">
+        <v>50</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="L27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
-        <v>1</v>
-      </c>
-      <c r="B27" s="30">
-        <v>50</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="31">
-        <v>10</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="30">
-        <v>50</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="L27" s="44" t="s">
+      <c r="M27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="45" t="s">
+      <c r="N27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="O27" s="34" t="s">
         <v>67</v>
-      </c>
-      <c r="O27" s="45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="21">
         <v>2</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="22">
         <v>100</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="22">
         <v>2</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="22">
         <v>100</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="L28" s="46">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="L28" s="35">
         <v>5</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="M28" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="47" t="s">
+      <c r="O28" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="47" t="s">
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19">
+        <v>100</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="19">
+        <v>200</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="L29" s="33">
+        <v>20</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>4</v>
+      </c>
+      <c r="B30" s="22">
+        <v>200</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="22">
         <v>3</v>
       </c>
-      <c r="B29" s="30">
-        <v>100</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="30">
-        <v>2</v>
-      </c>
-      <c r="F29" s="30" t="s">
+      <c r="F30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G30" s="22">
+        <v>300</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19">
         <v>200</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="L29" s="44">
-        <v>20</v>
+      <c r="C31" s="19" t="s">
+        <v>48</v>
       </c>
-      <c r="M29" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="45" t="s">
+      <c r="D31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32">
-        <v>4</v>
-      </c>
-      <c r="B30" s="33">
-        <v>200</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="33">
+      <c r="E31" s="19">
         <v>3</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="33">
-        <v>300</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
-        <v>5</v>
-      </c>
-      <c r="B31" s="30">
-        <v>200</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="30">
-        <v>3</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="19">
         <v>400</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>57</v>
+      <c r="A34" s="47" t="s">
+        <v>56</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
-        <v>59</v>
+      <c r="A36" s="26" t="s">
+        <v>58</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="29">
         <v>200</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="31">
         <v>1000</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
-        <v>62</v>
+      <c r="A37" s="27" t="s">
+        <v>61</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="30">
         <v>400</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="32">
         <v>2000</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
-        <v>63</v>
+      <c r="A38" s="26" t="s">
+        <v>62</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="29">
         <v>600</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="28">
         <v>3000</v>
       </c>
       <c r="D38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="L26:O26"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74CE92-EB7E-4005-87EF-9F2F70960085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F5378-EEC4-4E53-B0F8-5F69CEF6CEC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15630" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Jet</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>B,B+, G</t>
-  </si>
-  <si>
-    <t>maybe</t>
   </si>
   <si>
     <t>stages</t>
@@ -5532,8 +5529,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5409460" y="1580490"/>
-          <a:ext cx="123406" cy="1546697"/>
+          <a:off x="3638128" y="1666299"/>
+          <a:ext cx="130089" cy="1630450"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5547,10 +5544,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1546697"/>
+                <a:pt x="0" y="1630450"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="1546697"/>
+                <a:pt x="130089" y="1630450"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5591,8 +5588,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5409460" y="1580490"/>
-          <a:ext cx="123406" cy="962572"/>
+          <a:off x="3638128" y="1666299"/>
+          <a:ext cx="130089" cy="1014695"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5606,10 +5603,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="962572"/>
+                <a:pt x="0" y="1014695"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="962572"/>
+                <a:pt x="130089" y="1014695"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5650,8 +5647,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5409460" y="1580490"/>
-          <a:ext cx="123406" cy="378447"/>
+          <a:off x="3638128" y="1666299"/>
+          <a:ext cx="130089" cy="398939"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5665,10 +5662,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="378447"/>
+                <a:pt x="0" y="398939"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="378447"/>
+                <a:pt x="130089" y="398939"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5709,8 +5706,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5240804" y="996365"/>
-          <a:ext cx="497740" cy="172769"/>
+          <a:off x="3460340" y="1050544"/>
+          <a:ext cx="524692" cy="182124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5724,13 +5721,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="86384"/>
+                <a:pt x="0" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="497740" y="86384"/>
+                <a:pt x="524692" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="497740" y="172769"/>
+                <a:pt x="524692" y="182124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5771,8 +5768,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4413979" y="1580490"/>
-          <a:ext cx="123406" cy="1546697"/>
+          <a:off x="2588742" y="1666299"/>
+          <a:ext cx="130089" cy="1630450"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5786,10 +5783,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1546697"/>
+                <a:pt x="0" y="1630450"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="1546697"/>
+                <a:pt x="130089" y="1630450"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5830,8 +5827,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4413979" y="1580490"/>
-          <a:ext cx="123406" cy="962572"/>
+          <a:off x="2588742" y="1666299"/>
+          <a:ext cx="130089" cy="1014695"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5845,10 +5842,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="962572"/>
+                <a:pt x="0" y="1014695"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="962572"/>
+                <a:pt x="130089" y="1014695"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5889,8 +5886,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4413979" y="1580490"/>
-          <a:ext cx="123406" cy="378447"/>
+          <a:off x="2588742" y="1666299"/>
+          <a:ext cx="130089" cy="398939"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5904,10 +5901,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="378447"/>
+                <a:pt x="0" y="398939"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="378447"/>
+                <a:pt x="130089" y="398939"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5948,8 +5945,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4743063" y="996365"/>
-          <a:ext cx="497740" cy="172769"/>
+          <a:off x="2935647" y="1050544"/>
+          <a:ext cx="524692" cy="182124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5960,16 +5957,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="497740" y="0"/>
+                <a:pt x="524692" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="497740" y="86384"/>
+                <a:pt x="524692" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="86384"/>
+                <a:pt x="0" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="172769"/>
+                <a:pt x="0" y="182124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6010,8 +6007,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4245323" y="412240"/>
-          <a:ext cx="995480" cy="172769"/>
+          <a:off x="2410954" y="434789"/>
+          <a:ext cx="1049385" cy="182124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6025,13 +6022,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="86384"/>
+                <a:pt x="0" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="995480" y="86384"/>
+                <a:pt x="1049385" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="995480" y="172769"/>
+                <a:pt x="1049385" y="182124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6072,8 +6069,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3418498" y="1580490"/>
-          <a:ext cx="123406" cy="1546697"/>
+          <a:off x="1539357" y="1666299"/>
+          <a:ext cx="130089" cy="1630450"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6087,10 +6084,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1546697"/>
+                <a:pt x="0" y="1630450"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="1546697"/>
+                <a:pt x="130089" y="1630450"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6131,8 +6128,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3418498" y="1580490"/>
-          <a:ext cx="123406" cy="962572"/>
+          <a:off x="1539357" y="1666299"/>
+          <a:ext cx="130089" cy="1014695"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6146,10 +6143,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="962572"/>
+                <a:pt x="0" y="1014695"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="962572"/>
+                <a:pt x="130089" y="1014695"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6190,8 +6187,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3418498" y="1580490"/>
-          <a:ext cx="123406" cy="378447"/>
+          <a:off x="1539357" y="1666299"/>
+          <a:ext cx="130089" cy="398939"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6205,10 +6202,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="378447"/>
+                <a:pt x="0" y="398939"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="378447"/>
+                <a:pt x="130089" y="398939"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6249,8 +6246,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3249842" y="996365"/>
-          <a:ext cx="497740" cy="172769"/>
+          <a:off x="1361568" y="1050544"/>
+          <a:ext cx="524692" cy="182124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6264,13 +6261,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="86384"/>
+                <a:pt x="0" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="497740" y="86384"/>
+                <a:pt x="524692" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="497740" y="172769"/>
+                <a:pt x="524692" y="182124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6311,8 +6308,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2423017" y="1580490"/>
-          <a:ext cx="123406" cy="1546697"/>
+          <a:off x="489971" y="1666299"/>
+          <a:ext cx="130089" cy="1630450"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6326,10 +6323,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1546697"/>
+                <a:pt x="0" y="1630450"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="1546697"/>
+                <a:pt x="130089" y="1630450"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6370,8 +6367,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2423017" y="1580490"/>
-          <a:ext cx="123406" cy="962572"/>
+          <a:off x="489971" y="1666299"/>
+          <a:ext cx="130089" cy="1014695"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6385,10 +6382,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="962572"/>
+                <a:pt x="0" y="1014695"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="962572"/>
+                <a:pt x="130089" y="1014695"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6429,8 +6426,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2423017" y="1580490"/>
-          <a:ext cx="123406" cy="378447"/>
+          <a:off x="489971" y="1666299"/>
+          <a:ext cx="130089" cy="398939"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6444,10 +6441,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="378447"/>
+                <a:pt x="0" y="398939"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="123406" y="378447"/>
+                <a:pt x="130089" y="398939"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6488,8 +6485,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2752102" y="996365"/>
-          <a:ext cx="497740" cy="172769"/>
+          <a:off x="836875" y="1050544"/>
+          <a:ext cx="524692" cy="182124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6500,16 +6497,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="497740" y="0"/>
+                <a:pt x="524692" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="497740" y="86384"/>
+                <a:pt x="524692" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="86384"/>
+                <a:pt x="0" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="172769"/>
+                <a:pt x="0" y="182124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6550,8 +6547,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3249842" y="412240"/>
-          <a:ext cx="995480" cy="172769"/>
+          <a:off x="1361568" y="434789"/>
+          <a:ext cx="1049385" cy="182124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6562,16 +6559,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="995480" y="0"/>
+                <a:pt x="1049385" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="995480" y="86384"/>
+                <a:pt x="1049385" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="86384"/>
+                <a:pt x="0" y="91062"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="172769"/>
+                <a:pt x="0" y="182124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6612,8 +6609,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3833967" y="884"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="1977323" y="1158"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6679,8 +6676,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3833967" y="884"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="1977323" y="1158"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F0522322-D2FF-42EB-BC5F-058A5E2C1DD0}">
@@ -6690,8 +6687,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2838487" y="585009"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="927938" y="616913"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6757,8 +6754,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2838487" y="585009"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="927938" y="616913"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{92EA3E9B-F970-427F-AE92-10F2ABA5F8B0}">
@@ -6768,8 +6765,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2340746" y="1169134"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="403245" y="1232669"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6835,8 +6832,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2340746" y="1169134"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="403245" y="1232669"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{19370EB6-2C3C-41DB-A82E-8808A542EBFD}">
@@ -6846,8 +6843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2546424" y="1753259"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="620060" y="1848424"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6913,8 +6910,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2546424" y="1753259"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="620060" y="1848424"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BA403428-20B9-4256-B58D-5E6CCF4EAE6C}">
@@ -6924,8 +6921,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2546424" y="2337384"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="620060" y="2464179"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6991,8 +6988,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2546424" y="2337384"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="620060" y="2464179"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E116BC45-397E-44F0-A830-137D4CFF299D}">
@@ -7002,8 +6999,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2546424" y="2921509"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="620060" y="3079934"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7069,8 +7066,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2546424" y="2921509"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="620060" y="3079934"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9695DE3F-1BF0-42AC-8602-02FAA7E24662}">
@@ -7080,8 +7077,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3336227" y="1169134"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="1452631" y="1232669"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7147,8 +7144,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3336227" y="1169134"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="1452631" y="1232669"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FBD6E997-7698-4E20-9CBD-93EA7B0E0275}">
@@ -7158,8 +7155,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3541905" y="1753259"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="1669446" y="1848424"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7225,8 +7222,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3541905" y="1753259"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="1669446" y="1848424"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{571FA97C-B554-4971-A5F2-047F70EC77E5}">
@@ -7236,8 +7233,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3541905" y="2337384"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="1669446" y="2464179"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7303,8 +7300,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3541905" y="2337384"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="1669446" y="2464179"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6AF11E42-CC9C-4123-AB74-FFBB1391F052}">
@@ -7314,8 +7311,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3541905" y="2921509"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="1669446" y="3079934"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7381,8 +7378,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3541905" y="2921509"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="1669446" y="3079934"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2342BA5C-09FF-41B4-B972-A1F23E0E2A91}">
@@ -7392,8 +7389,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4829448" y="585009"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="3026709" y="616913"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7459,8 +7456,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4829448" y="585009"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="3026709" y="616913"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5BD2378D-1753-4642-A9B9-FFB32BDA8FC3}">
@@ -7470,8 +7467,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4331708" y="1169134"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="2502016" y="1232669"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7537,8 +7534,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4331708" y="1169134"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="2502016" y="1232669"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6148A14C-521B-48D9-98C9-FC19C4C87B01}">
@@ -7548,8 +7545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4537386" y="1753259"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="2718831" y="1848424"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7615,8 +7612,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4537386" y="1753259"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="2718831" y="1848424"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BAE9C717-BBBA-4872-A1FF-3C1D3E1E4E41}">
@@ -7626,8 +7623,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4537386" y="2337384"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="2718831" y="2464179"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7693,8 +7690,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4537386" y="2337384"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="2718831" y="2464179"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AFCADD26-F19F-4205-8EDD-55F59AC49CC5}">
@@ -7704,8 +7701,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4537386" y="2921509"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="2718831" y="3079934"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7771,8 +7768,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4537386" y="2921509"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="2718831" y="3079934"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8965666B-E568-4B40-AD2C-B64A4E6358F4}">
@@ -7782,8 +7779,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5327189" y="1169134"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="3551402" y="1232669"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7849,8 +7846,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5327189" y="1169134"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="3551402" y="1232669"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1008DE9C-8C49-448D-A278-DA04C042931C}">
@@ -7860,8 +7857,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5532866" y="1753259"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="3768217" y="1848424"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7927,8 +7924,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5532866" y="1753259"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="3768217" y="1848424"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B0668653-B9DA-49DF-88A6-826C5C11E5BC}">
@@ -7938,8 +7935,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5532866" y="2337384"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="3768217" y="2464179"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8005,8 +8002,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5532866" y="2337384"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="3768217" y="2464179"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2E3218C8-5AEB-44DB-94D0-4A5714E127FC}">
@@ -8016,8 +8013,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5532866" y="2921509"/>
-          <a:ext cx="822711" cy="411355"/>
+          <a:off x="3768217" y="3079934"/>
+          <a:ext cx="867260" cy="433630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8083,8 +8080,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5532866" y="2921509"/>
-        <a:ext cx="822711" cy="411355"/>
+        <a:off x="3768217" y="3079934"/>
+        <a:ext cx="867260" cy="433630"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -15030,15 +15027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1990724</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15065,16 +15062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15401,8 +15398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA1D6E-4D85-4965-AD76-81B1344FD2B8}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15552,7 +15549,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15715,12 +15712,12 @@
         <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -15739,7 +15736,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>11</v>
@@ -15757,12 +15754,12 @@
         <v>42</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="L26" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -15793,16 +15790,16 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="L27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="N27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="O27" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15816,7 +15813,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="22">
         <v>2</v>
@@ -15833,13 +15830,13 @@
         <v>5</v>
       </c>
       <c r="M28" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="O28" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15853,7 +15850,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="19">
         <v>2</v>
@@ -15876,7 +15873,7 @@
         <v>28</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15890,7 +15887,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="22">
         <v>3</v>
@@ -15925,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G31" s="19">
         <v>400</v>
@@ -15936,7 +15933,7 @@
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -15944,19 +15941,19 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="29">
         <v>200</v>
@@ -15968,7 +15965,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="30">
         <v>400</v>
@@ -15980,7 +15977,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="29">
         <v>600</v>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F5378-EEC4-4E53-B0F8-5F69CEF6CEC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA96983-35DA-459C-A926-DDDA768A72C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15630" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>Jet</t>
   </si>
@@ -245,6 +245,99 @@
   <si>
     <t>Better jet that has a minigun option</t>
   </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>60ms</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>nuke</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>5 seconds</t>
+  </si>
+  <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>BuffS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Save File</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>last saved</t>
+  </si>
+  <si>
+    <t>unlocks</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>player stats</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>date/time</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +347,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +393,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +476,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -615,12 +746,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4B083"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFED7D31"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFED7D31"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFED7D31"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFED7D31"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -697,25 +899,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,6 +919,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -760,15 +953,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,12 +962,120 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFF4B083"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFF4B083"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFF4B083"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFF4B083"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFF4B083"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFED7D31"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFF4B083"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -15099,6 +15391,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D974462-C457-4E76-AF2A-034E2F3FC1D4}" name="Table3" displayName="Table3" ref="F35:G43" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="F35:G43" xr:uid="{915AD7C4-37CE-4F6E-8F91-16E76CA8D7E8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1860AD64-5A7C-4EFD-9BEF-508E1183CED8}" name="Buff" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A1854F03-3007-450C-A254-776282713DA9}" name="amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{020C9FF0-05DF-4144-B812-486A4D4E9D5B}" name="Table37" displayName="Table37" ref="A43:B57" totalsRowShown="0">
+  <autoFilter ref="A43:B57" xr:uid="{AC91A0FB-988C-4881-84C9-B7CF4519D207}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C0D9D40F-2C77-43C6-ADF6-88879AB6C04F}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{A400A6EE-9456-47F7-96E8-42C4939DE17C}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{53743DF8-1036-4D72-BE7F-4FEBDAAE838D}" name="Table8" displayName="Table8" ref="A35:D38" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="A35:D38" xr:uid="{28B42186-DC0B-4542-8462-77EDAE07F5B5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B3B3B184-276E-428B-A2A1-ACF80AAFEA8E}" name="Lv"/>
+    <tableColumn id="2" xr3:uid="{85DB5845-8EA2-4332-ABF2-CD2ED9D633F9}" name="xp/lv"/>
+    <tableColumn id="3" xr3:uid="{FB428553-85E1-40A1-961F-8EBBCC1A1CC3}" name="total xp"/>
+    <tableColumn id="4" xr3:uid="{21B602C4-8EC2-4476-B31F-F8D371D6B036}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15396,10 +15723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA1D6E-4D85-4965-AD76-81B1344FD2B8}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15416,16 +15743,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -15521,13 +15848,13 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="1"/>
       <c r="G8" s="25"/>
     </row>
@@ -15651,12 +15978,12 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -15722,17 +16049,17 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
@@ -15758,12 +16085,12 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
@@ -15789,16 +16116,16 @@
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15826,16 +16153,16 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="L28" s="35">
+      <c r="L28" s="29">
         <v>5</v>
       </c>
-      <c r="M28" s="38" t="s">
+      <c r="M28" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="36" t="s">
+      <c r="O28" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15863,16 +16190,16 @@
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="L29" s="33">
+      <c r="L29" s="27">
         <v>20</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15900,10 +16227,10 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
@@ -15930,74 +16257,239 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="59"/>
+      <c r="F34" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="53"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36">
         <v>200</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36">
         <v>1000</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="F36" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="47">
+        <v>25</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37">
         <v>400</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37">
         <v>2000</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="F37" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="48">
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38">
         <v>600</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38">
         <v>3000</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="F38" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="F42" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="L26:O26"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA96983-35DA-459C-A926-DDDA768A72C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA09E17-9EE1-49D5-B398-F0242B33FA48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Bullets" sheetId="2" r:id="rId2"/>
+    <sheet name="Stages" sheetId="8" r:id="rId3"/>
+    <sheet name="Player Levels" sheetId="7" r:id="rId4"/>
+    <sheet name="Unlocks" sheetId="3" r:id="rId5"/>
+    <sheet name="Save" sheetId="5" r:id="rId6"/>
+    <sheet name="Scripter" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>Jet</t>
   </si>
@@ -338,6 +344,36 @@
   <si>
     <t>date/time</t>
   </si>
+  <si>
+    <t>Level Pack Maker Script</t>
+  </si>
+  <si>
+    <t>unit type</t>
+  </si>
+  <si>
+    <t>single/group</t>
+  </si>
+  <si>
+    <t>spawn type</t>
+  </si>
+  <si>
+    <t>time/score/random</t>
+  </si>
+  <si>
+    <t>spawn value</t>
+  </si>
+  <si>
+    <t>% between each if group</t>
+  </si>
+  <si>
+    <t>ms/int/int(1-100)</t>
+  </si>
+  <si>
+    <t>% to spawn between each (sum is 100)</t>
+  </si>
+  <si>
+    <t>int(buff or enenmy type)</t>
+  </si>
 </sst>
 </file>
 
@@ -588,19 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF4472C4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF8EAADB"/>
       </left>
@@ -815,6 +838,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFED7D31"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -822,7 +854,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -848,52 +880,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,40 +907,56 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,60 +971,81 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1012,7 +1054,47 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1054,13 +1136,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFF4B083"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFF4B083"/>
         </left>
@@ -1070,6 +1145,13 @@
         <top style="medium">
           <color rgb="FFED7D31"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFF4B083"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFF4B083"/>
         </bottom>
@@ -2605,7 +2687,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Standard Jet Normal Bullet</a:t>
+            <a:t>Normal Bullet</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -4217,7 +4299,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Fighter Jet Minigun</a:t>
+            <a:t>Minigun</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -5821,8 +5903,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3638128" y="1666299"/>
-          <a:ext cx="130089" cy="1630450"/>
+          <a:off x="3904700" y="1675447"/>
+          <a:ext cx="130628" cy="1637204"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5836,10 +5918,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1630450"/>
+                <a:pt x="0" y="1637204"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1630450"/>
+                <a:pt x="130628" y="1637204"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5880,8 +5962,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3638128" y="1666299"/>
-          <a:ext cx="130089" cy="1014695"/>
+          <a:off x="3904700" y="1675447"/>
+          <a:ext cx="130628" cy="1018898"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5895,10 +5977,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1014695"/>
+                <a:pt x="0" y="1018898"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1014695"/>
+                <a:pt x="130628" y="1018898"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5939,8 +6021,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3638128" y="1666299"/>
-          <a:ext cx="130089" cy="398939"/>
+          <a:off x="3904700" y="1675447"/>
+          <a:ext cx="130628" cy="400592"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5954,10 +6036,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="398939"/>
+                <a:pt x="0" y="400592"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="398939"/>
+                <a:pt x="130628" y="400592"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5998,8 +6080,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3460340" y="1050544"/>
-          <a:ext cx="524692" cy="182124"/>
+          <a:off x="3726175" y="1057141"/>
+          <a:ext cx="526866" cy="182879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6013,13 +6095,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="91062"/>
+                <a:pt x="0" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="524692" y="91062"/>
+                <a:pt x="526866" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="524692" y="182124"/>
+                <a:pt x="526866" y="182879"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6060,8 +6142,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2588742" y="1666299"/>
-          <a:ext cx="130089" cy="1630450"/>
+          <a:off x="2850967" y="1675447"/>
+          <a:ext cx="130628" cy="1637204"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6075,10 +6157,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1630450"/>
+                <a:pt x="0" y="1637204"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1630450"/>
+                <a:pt x="130628" y="1637204"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6119,8 +6201,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2588742" y="1666299"/>
-          <a:ext cx="130089" cy="1014695"/>
+          <a:off x="2850967" y="1675447"/>
+          <a:ext cx="130628" cy="1018898"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6134,10 +6216,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1014695"/>
+                <a:pt x="0" y="1018898"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1014695"/>
+                <a:pt x="130628" y="1018898"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6178,8 +6260,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2588742" y="1666299"/>
-          <a:ext cx="130089" cy="398939"/>
+          <a:off x="2850967" y="1675447"/>
+          <a:ext cx="130628" cy="400592"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6193,10 +6275,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="398939"/>
+                <a:pt x="0" y="400592"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="398939"/>
+                <a:pt x="130628" y="400592"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6237,8 +6319,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2935647" y="1050544"/>
-          <a:ext cx="524692" cy="182124"/>
+          <a:off x="3199309" y="1057141"/>
+          <a:ext cx="526866" cy="182879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6249,16 +6331,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="524692" y="0"/>
+                <a:pt x="526866" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="524692" y="91062"/>
+                <a:pt x="526866" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="91062"/>
+                <a:pt x="0" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="182124"/>
+                <a:pt x="0" y="182879"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6299,8 +6381,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2410954" y="434789"/>
-          <a:ext cx="1049385" cy="182124"/>
+          <a:off x="2672442" y="438835"/>
+          <a:ext cx="1053732" cy="182879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6314,13 +6396,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="91062"/>
+                <a:pt x="0" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1049385" y="91062"/>
+                <a:pt x="1053732" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1049385" y="182124"/>
+                <a:pt x="1053732" y="182879"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6361,8 +6443,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1539357" y="1666299"/>
-          <a:ext cx="130089" cy="1630450"/>
+          <a:off x="1797234" y="1675447"/>
+          <a:ext cx="130628" cy="1637204"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6376,10 +6458,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1630450"/>
+                <a:pt x="0" y="1637204"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1630450"/>
+                <a:pt x="130628" y="1637204"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6420,8 +6502,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1539357" y="1666299"/>
-          <a:ext cx="130089" cy="1014695"/>
+          <a:off x="1797234" y="1675447"/>
+          <a:ext cx="130628" cy="1018898"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6435,10 +6517,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1014695"/>
+                <a:pt x="0" y="1018898"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1014695"/>
+                <a:pt x="130628" y="1018898"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6479,8 +6561,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1539357" y="1666299"/>
-          <a:ext cx="130089" cy="398939"/>
+          <a:off x="1797234" y="1675447"/>
+          <a:ext cx="130628" cy="400592"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6494,10 +6576,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="398939"/>
+                <a:pt x="0" y="400592"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="398939"/>
+                <a:pt x="130628" y="400592"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6538,8 +6620,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1361568" y="1050544"/>
-          <a:ext cx="524692" cy="182124"/>
+          <a:off x="1618709" y="1057141"/>
+          <a:ext cx="526866" cy="182879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6553,13 +6635,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="91062"/>
+                <a:pt x="0" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="524692" y="91062"/>
+                <a:pt x="526866" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="524692" y="182124"/>
+                <a:pt x="526866" y="182879"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6600,8 +6682,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="489971" y="1666299"/>
-          <a:ext cx="130089" cy="1630450"/>
+          <a:off x="743501" y="1675447"/>
+          <a:ext cx="130628" cy="1637204"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6615,10 +6697,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1630450"/>
+                <a:pt x="0" y="1637204"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1630450"/>
+                <a:pt x="130628" y="1637204"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6659,8 +6741,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="489971" y="1666299"/>
-          <a:ext cx="130089" cy="1014695"/>
+          <a:off x="743501" y="1675447"/>
+          <a:ext cx="130628" cy="1018898"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6674,10 +6756,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1014695"/>
+                <a:pt x="0" y="1018898"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="1014695"/>
+                <a:pt x="130628" y="1018898"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6718,8 +6800,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="489971" y="1666299"/>
-          <a:ext cx="130089" cy="398939"/>
+          <a:off x="743501" y="1675447"/>
+          <a:ext cx="130628" cy="400592"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6733,10 +6815,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="398939"/>
+                <a:pt x="0" y="400592"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130089" y="398939"/>
+                <a:pt x="130628" y="400592"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6777,8 +6859,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="836875" y="1050544"/>
-          <a:ext cx="524692" cy="182124"/>
+          <a:off x="1091843" y="1057141"/>
+          <a:ext cx="526866" cy="182879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6789,16 +6871,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="524692" y="0"/>
+                <a:pt x="526866" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="524692" y="91062"/>
+                <a:pt x="526866" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="91062"/>
+                <a:pt x="0" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="182124"/>
+                <a:pt x="0" y="182879"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6839,8 +6921,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1361568" y="434789"/>
-          <a:ext cx="1049385" cy="182124"/>
+          <a:off x="1618709" y="438835"/>
+          <a:ext cx="1053732" cy="182879"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6851,16 +6933,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1049385" y="0"/>
+                <a:pt x="1053732" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1049385" y="91062"/>
+                <a:pt x="1053732" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="91062"/>
+                <a:pt x="0" y="91439"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="182124"/>
+                <a:pt x="0" y="182879"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6901,8 +6983,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1977323" y="1158"/>
-          <a:ext cx="867260" cy="433630"/>
+          <a:off x="2237015" y="3408"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6944,2580 +7026,6 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>Standard Jet Normal Bullet</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1977323" y="1158"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F0522322-D2FF-42EB-BC5F-058A5E2C1DD0}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="927938" y="616913"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>2x</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="927938" y="616913"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{92EA3E9B-F970-427F-AE92-10F2ABA5F8B0}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="403245" y="1232669"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FV</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="403245" y="1232669"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{19370EB6-2C3C-41DB-A82E-8808A542EBFD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="620060" y="1848424"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>Red</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="620060" y="1848424"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{BA403428-20B9-4256-B58D-5E6CCF4EAE6C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="620060" y="2464179"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>2x Red</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="620060" y="2464179"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E116BC45-397E-44F0-A830-137D4CFF299D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="620060" y="3079934"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>Bigger</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="620060" y="3079934"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{9695DE3F-1BF0-42AC-8602-02FAA7E24662}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1452631" y="1232669"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>3X</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1452631" y="1232669"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{FBD6E997-7698-4E20-9CBD-93EA7B0E0275}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1669446" y="1848424"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>x4</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1669446" y="1848424"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{571FA97C-B554-4971-A5F2-047F70EC77E5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1669446" y="2464179"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>x5</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1669446" y="2464179"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{6AF11E42-CC9C-4123-AB74-FFBB1391F052}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1669446" y="3079934"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>x6</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1669446" y="3079934"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{2342BA5C-09FF-41B4-B972-A1F23E0E2A91}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3026709" y="616913"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FS</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3026709" y="616913"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{5BD2378D-1753-4642-A9B9-FFB32BDA8FC3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2502016" y="1232669"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>X2</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2502016" y="1232669"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{6148A14C-521B-48D9-98C9-FC19C4C87B01}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2718831" y="1848424"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FV</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2718831" y="1848424"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{BAE9C717-BBBA-4872-A1FF-3C1D3E1E4E41}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2718831" y="2464179"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>shock</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2718831" y="2464179"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{AFCADD26-F19F-4205-8EDD-55F59AC49CC5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2718831" y="3079934"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>emp</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2718831" y="3079934"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{8965666B-E568-4B40-AD2C-B64A4E6358F4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3551402" y="1232669"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FS</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3551402" y="1232669"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{1008DE9C-8C49-448D-A278-DA04C042931C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3768217" y="1848424"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FS</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3768217" y="1848424"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B0668653-B9DA-49DF-88A6-826C5C11E5BC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3768217" y="2464179"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FV</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3768217" y="2464179"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{2E3218C8-5AEB-44DB-94D0-4A5714E127FC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3768217" y="3079934"/>
-          <a:ext cx="867260" cy="433630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>FV</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3768217" y="3079934"/>
-        <a:ext cx="867260" cy="433630"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-  </dsp:spTree>
-</dsp:drawing>
-</file>
-
-<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <dsp:spTree>
-    <dsp:nvGrpSpPr>
-      <dsp:cNvPr id="0" name=""/>
-      <dsp:cNvGrpSpPr/>
-    </dsp:nvGrpSpPr>
-    <dsp:grpSpPr/>
-    <dsp:sp modelId="{62272E52-B223-4596-8C88-4E5DD5D9BC6E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3882872" y="1598588"/>
-          <a:ext cx="124767" cy="1563747"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1563747"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="1563747"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{6A4D0B6E-FDB6-46C4-9316-0FA49FADBB04}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3882872" y="1598588"/>
-          <a:ext cx="124767" cy="973183"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="973183"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="973183"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{58DAA431-F205-46FA-9033-903D6DCB3EA4}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3882872" y="1598588"/>
-          <a:ext cx="124767" cy="382619"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="382619"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="382619"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{8B0FFE43-CA05-4F14-A3C9-4670CE4013CC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3712356" y="1008023"/>
-          <a:ext cx="503227" cy="174673"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="503227" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="503227" y="174673"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{E0595BE9-7E09-4990-BBEB-834DF3E7127E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2876417" y="1598588"/>
-          <a:ext cx="124767" cy="1563747"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1563747"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="1563747"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{23A78368-DB4F-47C8-A6F0-E4DC1E4B896E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2876417" y="1598588"/>
-          <a:ext cx="124767" cy="973183"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="973183"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="973183"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{7460776F-2AAA-4898-A770-BB436A55D69B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2876417" y="1598588"/>
-          <a:ext cx="124767" cy="382619"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="382619"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="382619"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B0737E8D-2126-459C-A760-5C0106CCDE57}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3209129" y="1008023"/>
-          <a:ext cx="503227" cy="174673"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="503227" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="503227" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="174673"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{50FC3B14-84C0-4963-A5D7-FA4222D81069}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2705902" y="417459"/>
-          <a:ext cx="1006454" cy="174673"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1006454" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1006454" y="174673"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{30DD9403-6FA6-4702-BEF8-CCBFBDF4F5D3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1869962" y="1598588"/>
-          <a:ext cx="124767" cy="1563747"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1563747"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="1563747"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{8EAE8CA8-8413-4596-AEE3-FE074785B3AB}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1869962" y="1598588"/>
-          <a:ext cx="124767" cy="973183"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="973183"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="973183"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{02A9D081-E30A-4CD0-BB7A-DDC542BA7739}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1869962" y="1598588"/>
-          <a:ext cx="124767" cy="382619"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="382619"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="124767" y="382619"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{AC2F3A3A-1A97-4313-9AFA-E97BEEA5570B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1699447" y="1008023"/>
-          <a:ext cx="503227" cy="174673"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="503227" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="503227" y="174673"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{0256B3F7-B103-4320-9229-4D93C5D6BAEC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="863508" y="1598588"/>
-          <a:ext cx="97800" cy="1564566"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1564566"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="97800" y="1564566"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{943027C2-7257-4910-A35A-527A21E9A8D6}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="817788" y="1598588"/>
-          <a:ext cx="91440" cy="973183"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45720" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45720" y="973183"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="107571" y="973183"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{BB31E4EE-6163-400E-B737-2B63C0A346EB}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="817788" y="1598588"/>
-          <a:ext cx="91440" cy="373631"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45720" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45720" y="373631"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="107571" y="373631"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B6157798-7B28-484E-A23E-ABB973B137E8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1196220" y="1008023"/>
-          <a:ext cx="503227" cy="174673"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="503227" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="503227" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="174673"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{83E470DC-397C-46BE-A4E0-8F3DA7EC5CCF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1699447" y="417459"/>
-          <a:ext cx="1006454" cy="174673"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="1006454" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1006454" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="87336"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="174673"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{41DDB0CB-7794-48B8-AB07-B1BF356BECE9}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2290012" y="1569"/>
-          <a:ext cx="831780" cy="415890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
         <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
@@ -9537,13 +7045,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>Fighter Jet Minigun</a:t>
+            <a:t>Normal Bullet</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2290012" y="1569"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="2237015" y="3408"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F0522322-D2FF-42EB-BC5F-058A5E2C1DD0}">
@@ -9553,8 +7061,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1283557" y="592133"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="1183283" y="621714"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9620,8 +7128,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1283557" y="592133"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="1183283" y="621714"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{92EA3E9B-F970-427F-AE92-10F2ABA5F8B0}">
@@ -9631,8 +7139,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="780330" y="1182697"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="656416" y="1240020"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9698,8 +7206,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="780330" y="1182697"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="656416" y="1240020"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{19370EB6-2C3C-41DB-A82E-8808A542EBFD}">
@@ -9709,8 +7217,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="925359" y="1764274"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="874129" y="1858326"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9776,8 +7284,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="925359" y="1764274"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="874129" y="1858326"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BA403428-20B9-4256-B58D-5E6CCF4EAE6C}">
@@ -9787,8 +7295,476 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="925359" y="2363826"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="874129" y="2476632"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>2x Red</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="874129" y="2476632"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E116BC45-397E-44F0-A830-137D4CFF299D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="874129" y="3094938"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Bigger</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="874129" y="3094938"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9695DE3F-1BF0-42AC-8602-02FAA7E24662}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1710149" y="1240020"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>3X</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1710149" y="1240020"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FBD6E997-7698-4E20-9CBD-93EA7B0E0275}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1927862" y="1858326"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>x4</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1927862" y="1858326"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{571FA97C-B554-4971-A5F2-047F70EC77E5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1927862" y="2476632"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>x5</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1927862" y="2476632"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6AF11E42-CC9C-4123-AB74-FFBB1391F052}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1927862" y="3094938"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>x6</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1927862" y="3094938"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2342BA5C-09FF-41B4-B972-A1F23E0E2A91}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3290748" y="621714"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9854,19 +7830,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="925359" y="2363826"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="3290748" y="621714"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E116BC45-397E-44F0-A830-137D4CFF299D}">
+    <dsp:sp modelId="{5BD2378D-1753-4642-A9B9-FFB32BDA8FC3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="961309" y="2955209"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="2763882" y="1240020"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9927,24 +7903,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>2X Red</a:t>
+            <a:t>X2</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="961309" y="2955209"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="2763882" y="1240020"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{9695DE3F-1BF0-42AC-8602-02FAA7E24662}">
+    <dsp:sp modelId="{6148A14C-521B-48D9-98C9-FC19C4C87B01}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1786784" y="1182697"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="2981595" y="1858326"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10005,24 +7981,180 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>X3</a:t>
+            <a:t>FV</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1786784" y="1182697"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="2981595" y="1858326"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FBD6E997-7698-4E20-9CBD-93EA7B0E0275}">
+    <dsp:sp modelId="{BAE9C717-BBBA-4872-A1FF-3C1D3E1E4E41}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1994729" y="1773261"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="2981595" y="2476632"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>shock</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2981595" y="2476632"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AFCADD26-F19F-4205-8EDD-55F59AC49CC5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2981595" y="3094938"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>emp</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2981595" y="3094938"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8965666B-E568-4B40-AD2C-B64A4E6358F4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3817615" y="1240020"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10088,19 +8220,97 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1994729" y="1773261"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="3817615" y="1240020"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{571FA97C-B554-4971-A5F2-047F70EC77E5}">
+    <dsp:sp modelId="{1008DE9C-8C49-448D-A278-DA04C042931C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1994729" y="2363826"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="4035328" y="1858326"/>
+          <a:ext cx="870853" cy="435426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>FS</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4035328" y="1858326"/>
+        <a:ext cx="870853" cy="435426"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B0668653-B9DA-49DF-88A6-826C5C11E5BC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4035328" y="2476632"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10166,97 +8376,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1994729" y="2363826"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="4035328" y="2476632"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6AF11E42-CC9C-4123-AB74-FFBB1391F052}">
+    <dsp:sp modelId="{2E3218C8-5AEB-44DB-94D0-4A5714E127FC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1994729" y="2954390"/>
-          <a:ext cx="831780" cy="415890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>X4</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1994729" y="2954390"/>
-        <a:ext cx="831780" cy="415890"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{2342BA5C-09FF-41B4-B972-A1F23E0E2A91}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3296466" y="592133"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="4035328" y="3094938"/>
+          <a:ext cx="870853" cy="435426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10322,19 +8454,1111 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3296466" y="592133"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="4035328" y="3094938"/>
+        <a:ext cx="870853" cy="435426"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5BD2378D-1753-4642-A9B9-FFB32BDA8FC3}">
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{62272E52-B223-4596-8C88-4E5DD5D9BC6E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2793239" y="1182697"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="4087532" y="1598598"/>
+          <a:ext cx="124752" cy="1563561"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1563561"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="1563561"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6A4D0B6E-FDB6-46C4-9316-0FA49FADBB04}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4087532" y="1598598"/>
+          <a:ext cx="124752" cy="973067"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="973067"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="973067"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{58DAA431-F205-46FA-9033-903D6DCB3EA4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4087532" y="1598598"/>
+          <a:ext cx="124752" cy="382573"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="382573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="382573"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8B0FFE43-CA05-4F14-A3C9-4670CE4013CC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3917037" y="1008104"/>
+          <a:ext cx="503167" cy="174653"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="503167" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="503167" y="174653"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E0595BE9-7E09-4990-BBEB-834DF3E7127E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3081197" y="1598598"/>
+          <a:ext cx="124752" cy="1563561"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1563561"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="1563561"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{23A78368-DB4F-47C8-A6F0-E4DC1E4B896E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3081197" y="1598598"/>
+          <a:ext cx="124752" cy="973067"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="973067"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="973067"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7460776F-2AAA-4898-A770-BB436A55D69B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3081197" y="1598598"/>
+          <a:ext cx="124752" cy="382573"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="382573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="382573"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B0737E8D-2126-459C-A760-5C0106CCDE57}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3413869" y="1008104"/>
+          <a:ext cx="503167" cy="174653"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="503167" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="503167" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="174653"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{50FC3B14-84C0-4963-A5D7-FA4222D81069}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2910702" y="417610"/>
+          <a:ext cx="1006334" cy="174653"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1006334" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1006334" y="174653"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{30DD9403-6FA6-4702-BEF8-CCBFBDF4F5D3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2074862" y="1598598"/>
+          <a:ext cx="124752" cy="1563561"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1563561"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="1563561"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8EAE8CA8-8413-4596-AEE3-FE074785B3AB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2074862" y="1598598"/>
+          <a:ext cx="124752" cy="973067"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="973067"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="973067"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{02A9D081-E30A-4CD0-BB7A-DDC542BA7739}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2074862" y="1598598"/>
+          <a:ext cx="124752" cy="382573"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="382573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="124752" y="382573"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AC2F3A3A-1A97-4313-9AFA-E97BEEA5570B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1904367" y="1008104"/>
+          <a:ext cx="503167" cy="174653"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="503167" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="503167" y="174653"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0256B3F7-B103-4320-9229-4D93C5D6BAEC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1068527" y="1598598"/>
+          <a:ext cx="97789" cy="1564380"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1564380"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="97789" y="1564380"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{943027C2-7257-4910-A35A-527A21E9A8D6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1022807" y="1598598"/>
+          <a:ext cx="91440" cy="973067"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="973067"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="107563" y="973067"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BB31E4EE-6163-400E-B737-2B63C0A346EB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1022807" y="1598598"/>
+          <a:ext cx="91440" cy="373587"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="373587"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="107563" y="373587"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B6157798-7B28-484E-A23E-ABB973B137E8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1401199" y="1008104"/>
+          <a:ext cx="503167" cy="174653"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="503167" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="503167" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="174653"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{83E470DC-397C-46BE-A4E0-8F3DA7EC5CCF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1904367" y="417610"/>
+          <a:ext cx="1006334" cy="174653"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1006334" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1006334" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="87326"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="174653"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{41DDB0CB-7794-48B8-AB07-B1BF356BECE9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2494861" y="1769"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10376,12 +9600,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10394,25 +9618,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>FV</a:t>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>Minigun</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2793239" y="1182697"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="2494861" y="1769"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6148A14C-521B-48D9-98C9-FC19C4C87B01}">
+    <dsp:sp modelId="{F0522322-D2FF-42EB-BC5F-058A5E2C1DD0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3001184" y="1773261"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="1488526" y="592263"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10454,12 +9678,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10472,25 +9696,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>FS</a:t>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>2x</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3001184" y="1773261"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="1488526" y="592263"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{BAE9C717-BBBA-4872-A1FF-3C1D3E1E4E41}">
+    <dsp:sp modelId="{92EA3E9B-F970-427F-AE92-10F2ABA5F8B0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3001184" y="2363826"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="985358" y="1182757"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10532,12 +9756,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10550,25 +9774,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>FS</a:t>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FV</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3001184" y="2363826"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="985358" y="1182757"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{AFCADD26-F19F-4205-8EDD-55F59AC49CC5}">
+    <dsp:sp modelId="{19370EB6-2C3C-41DB-A82E-8808A542EBFD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3001184" y="2954390"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="1130370" y="1764265"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10610,12 +9834,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10628,25 +9852,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>FS</a:t>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>Red</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3001184" y="2954390"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="1130370" y="1764265"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{8965666B-E568-4B40-AD2C-B64A4E6358F4}">
+    <dsp:sp modelId="{BA403428-20B9-4256-B58D-5E6CCF4EAE6C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3799693" y="1182697"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="1130370" y="2363745"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10688,12 +9912,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10706,25 +9930,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
             <a:t>FS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3799693" y="1182697"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="1130370" y="2363745"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1008DE9C-8C49-448D-A278-DA04C042931C}">
+    <dsp:sp modelId="{E116BC45-397E-44F0-A830-137D4CFF299D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4007639" y="1773261"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="1166316" y="2955058"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10766,12 +9990,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10784,25 +10008,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>shock</a:t>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>2X Red</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4007639" y="1773261"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="1166316" y="2955058"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B0668653-B9DA-49DF-88A6-826C5C11E5BC}">
+    <dsp:sp modelId="{9695DE3F-1BF0-42AC-8602-02FAA7E24662}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4007639" y="2363826"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="1991693" y="1182757"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10844,12 +10068,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10862,25 +10086,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>FV</a:t>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>X3</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4007639" y="2363826"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="1991693" y="1182757"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2E3218C8-5AEB-44DB-94D0-4A5714E127FC}">
+    <dsp:sp modelId="{FBD6E997-7698-4E20-9CBD-93EA7B0E0275}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4007639" y="2954390"/>
-          <a:ext cx="831780" cy="415890"/>
+          <a:off x="2199614" y="1773251"/>
+          <a:ext cx="831681" cy="415840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10922,12 +10146,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10940,14 +10164,872 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FS</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2199614" y="1773251"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{571FA97C-B554-4971-A5F2-047F70EC77E5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2199614" y="2363745"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FV</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2199614" y="2363745"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6AF11E42-CC9C-4123-AB74-FFBB1391F052}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2199614" y="2954239"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>X4</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2199614" y="2954239"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2342BA5C-09FF-41B4-B972-A1F23E0E2A91}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3501196" y="592263"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FV</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3501196" y="592263"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5BD2378D-1753-4642-A9B9-FFB32BDA8FC3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2998028" y="1182757"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FV</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2998028" y="1182757"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6148A14C-521B-48D9-98C9-FC19C4C87B01}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3205949" y="1773251"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FS</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3205949" y="1773251"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BAE9C717-BBBA-4872-A1FF-3C1D3E1E4E41}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3205949" y="2363745"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FS</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3205949" y="2363745"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AFCADD26-F19F-4205-8EDD-55F59AC49CC5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3205949" y="2954239"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FS</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3205949" y="2954239"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8965666B-E568-4B40-AD2C-B64A4E6358F4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4004363" y="1182757"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FS</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4004363" y="1182757"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1008DE9C-8C49-448D-A278-DA04C042931C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4212284" y="1773251"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>shock</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4212284" y="1773251"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B0668653-B9DA-49DF-88A6-826C5C11E5BC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4212284" y="2363745"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:t>FV</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4212284" y="2363745"/>
+        <a:ext cx="831681" cy="415840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2E3218C8-5AEB-44DB-94D0-4A5714E127FC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4212284" y="2954239"/>
+          <a:ext cx="831681" cy="415840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="11430" tIns="11430" rIns="11430" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" kern="1200"/>
             <a:t>emp</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4007639" y="2954390"/>
-        <a:ext cx="831780" cy="415890"/>
+        <a:off x="4212284" y="2954239"/>
+        <a:ext cx="831681" cy="415840"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -15318,23 +15400,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1990724</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F7726A-BFB5-4ED1-9C21-BAA166474839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2637374-9E88-4DD1-A754-866C77D37785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15354,23 +15436,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA90F83-C70E-491D-A5EA-7AEC33D6640B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F115E5A4-57C9-408E-B5DA-D910C3992EAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15392,10 +15474,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D974462-C457-4E76-AF2A-034E2F3FC1D4}" name="Table3" displayName="Table3" ref="F35:G43" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="F35:G43" xr:uid="{915AD7C4-37CE-4F6E-8F91-16E76CA8D7E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D974462-C457-4E76-AF2A-034E2F3FC1D4}" name="Table3" displayName="Table3" ref="I13:J21" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="I13:J21" xr:uid="{915AD7C4-37CE-4F6E-8F91-16E76CA8D7E8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1860AD64-5A7C-4EFD-9BEF-508E1183CED8}" name="Buff" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1860AD64-5A7C-4EFD-9BEF-508E1183CED8}" name="Buff" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{A1854F03-3007-450C-A254-776282713DA9}" name="amount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15403,24 +15485,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{020C9FF0-05DF-4144-B812-486A4D4E9D5B}" name="Table37" displayName="Table37" ref="A43:B57" totalsRowShown="0">
-  <autoFilter ref="A43:B57" xr:uid="{AC91A0FB-988C-4881-84C9-B7CF4519D207}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{53743DF8-1036-4D72-BE7F-4FEBDAAE838D}" name="Table8" displayName="Table8" ref="A2:D5" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="A2:D5" xr:uid="{28B42186-DC0B-4542-8462-77EDAE07F5B5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B3B3B184-276E-428B-A2A1-ACF80AAFEA8E}" name="Lv"/>
+    <tableColumn id="2" xr3:uid="{85DB5845-8EA2-4332-ABF2-CD2ED9D633F9}" name="xp/lv"/>
+    <tableColumn id="3" xr3:uid="{FB428553-85E1-40A1-961F-8EBBCC1A1CC3}" name="total xp"/>
+    <tableColumn id="4" xr3:uid="{21B602C4-8EC2-4476-B31F-F8D371D6B036}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6C4F16A-C319-4B3F-B953-45024534211E}" name="Table373" displayName="Table373" ref="B4:C18" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="B4:C18" xr:uid="{2D649C6A-AF6B-449D-B354-3EAAD3806A68}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C0D9D40F-2C77-43C6-ADF6-88879AB6C04F}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A400A6EE-9456-47F7-96E8-42C4939DE17C}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{616AC576-0EB5-41EF-9F20-7A9D6B859165}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3C51EAF6-5189-4B45-878F-F688AC2CBD73}" name="Value" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{53743DF8-1036-4D72-BE7F-4FEBDAAE838D}" name="Table8" displayName="Table8" ref="A35:D38" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="A35:D38" xr:uid="{28B42186-DC0B-4542-8462-77EDAE07F5B5}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B3B3B184-276E-428B-A2A1-ACF80AAFEA8E}" name="Lv"/>
-    <tableColumn id="2" xr3:uid="{85DB5845-8EA2-4332-ABF2-CD2ED9D633F9}" name="xp/lv"/>
-    <tableColumn id="3" xr3:uid="{FB428553-85E1-40A1-961F-8EBBCC1A1CC3}" name="total xp"/>
-    <tableColumn id="4" xr3:uid="{21B602C4-8EC2-4476-B31F-F8D371D6B036}" name="Column1"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66268302-0BCE-4ACB-8CEC-8DFB5AE81492}" name="Table82" displayName="Table82" ref="C7:G8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="5" tableBorderDxfId="12">
+  <autoFilter ref="C7:G8" xr:uid="{186EA7B6-8746-4E45-8800-BC37AB6BF481}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{85CBFCAC-813D-499F-822E-B19CE33AD29F}" name="unit type" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F8C363DC-CAE7-4829-A4BF-1E7B8106A36B}" name="spawn type" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1515FA90-49D7-420B-BDA2-A6DD94663CD5}" name="spawn value" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F5362FE4-81C9-44AF-95BE-220810A5E4AC}" name="type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="% between each if group" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15723,10 +15819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA1D6E-4D85-4965-AD76-81B1344FD2B8}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15735,26 +15831,30 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="50.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" customWidth="1"/>
+    <col min="15" max="15" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -15777,7 +15877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -15800,7 +15900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -15822,8 +15922,14 @@
       <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="I4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -15845,20 +15951,69 @@
       <c r="G5" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -15879,7 +16034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -15902,7 +16057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -15925,7 +16080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -15947,8 +16102,12 @@
       <c r="G12" s="5">
         <v>20</v>
       </c>
+      <c r="I12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -15966,8 +16125,14 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
+      <c r="I13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -15975,521 +16140,667 @@
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
+      <c r="I14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="22">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="J16" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
+    <row r="17" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
+    <row r="18" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
+    <row r="19" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
-        <v>53</v>
+    <row r="20" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="L26" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
+    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="29"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>1</v>
-      </c>
-      <c r="B27" s="19">
-        <v>50</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="20">
-        <v>10</v>
-      </c>
-      <c r="E27" s="19">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="19">
-        <v>50</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="L27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <v>2</v>
-      </c>
-      <c r="B28" s="22">
-        <v>100</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="22">
-        <v>2</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="22">
-        <v>100</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="L28" s="29">
-        <v>5</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
-        <v>3</v>
-      </c>
-      <c r="B29" s="19">
-        <v>100</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="19">
-        <v>2</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="19">
-        <v>200</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="L29" s="27">
-        <v>20</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>4</v>
-      </c>
-      <c r="B30" s="22">
-        <v>200</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="22">
-        <v>3</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="22">
-        <v>300</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>5</v>
-      </c>
-      <c r="B31" s="19">
-        <v>200</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="19">
-        <v>3</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="19">
-        <v>400</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="59"/>
-      <c r="F34" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-      <c r="C36">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37">
-        <v>400</v>
-      </c>
-      <c r="C37">
-        <v>2000</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38">
-        <v>600</v>
-      </c>
-      <c r="C38">
-        <v>3000</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="F42" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
+    <row r="34" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="L26:O26"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="3">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F503D3D-DCCD-4C9E-86D3-9E26EAF6F7FA}">
+  <dimension ref="J26:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA2857-3185-4257-A21B-3E40C8136708}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61">
+        <v>50</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="62">
+        <v>10</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="61">
+        <v>50</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64">
+        <v>2</v>
+      </c>
+      <c r="B4" s="58">
+        <v>100</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="58">
+        <v>2</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="58">
+        <v>100</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60">
+        <v>3</v>
+      </c>
+      <c r="B5" s="61">
+        <v>100</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="61">
+        <v>2</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="61">
+        <v>200</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
+        <v>4</v>
+      </c>
+      <c r="B6" s="58">
+        <v>200</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="58">
+        <v>3</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="58">
+        <v>300</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60">
+        <v>5</v>
+      </c>
+      <c r="B7" s="61">
+        <v>200</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="61">
+        <v>3</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="61">
+        <v>400</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA7233-1D23-4CDC-936E-B58443B6AA05}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ECC6D8-6187-4DB9-9A72-31C0AAB05E78}">
+  <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="48">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="46">
+        <v>20</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3867FD-F6CF-46E3-9610-F9906A08081E}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="53"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3F9D3-C462-401C-9BDF-218C6D9EB7CC}">
+  <dimension ref="C6:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA09E17-9EE1-49D5-B398-F0242B33FA48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5DD88-FB27-4856-ADF0-D37CD34FE7F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
+    <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15030" activeTab="5" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>Jet</t>
   </si>
@@ -204,25 +204,7 @@
     <t>xp</t>
   </si>
   <si>
-    <t>Player Levels</t>
-  </si>
-  <si>
-    <t>Lv</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>xp/lv</t>
-  </si>
-  <si>
     <t>total xp</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>10-15</t>
   </si>
   <si>
     <t>Unlocks</t>
@@ -286,9 +268,6 @@
   </si>
   <si>
     <t>immune</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Buff</t>
@@ -373,6 +352,24 @@
   </si>
   <si>
     <t>int(buff or enenmy type)</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B,G</t>
+  </si>
+  <si>
+    <t>B,G,B+</t>
+  </si>
+  <si>
+    <t>enemy types</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -808,37 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFED7D31"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFED7D31"/>
       </left>
@@ -854,7 +820,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,51 +907,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -998,28 +919,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,6 +947,63 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1055,28 +1012,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1101,6 +1036,24 @@
           <color theme="4"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15485,38 +15438,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{53743DF8-1036-4D72-BE7F-4FEBDAAE838D}" name="Table8" displayName="Table8" ref="A2:D5" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="A2:D5" xr:uid="{28B42186-DC0B-4542-8462-77EDAE07F5B5}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B3B3B184-276E-428B-A2A1-ACF80AAFEA8E}" name="Lv"/>
-    <tableColumn id="2" xr3:uid="{85DB5845-8EA2-4332-ABF2-CD2ED9D633F9}" name="xp/lv"/>
-    <tableColumn id="3" xr3:uid="{FB428553-85E1-40A1-961F-8EBBCC1A1CC3}" name="total xp"/>
-    <tableColumn id="4" xr3:uid="{21B602C4-8EC2-4476-B31F-F8D371D6B036}" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8F4517B3-F27E-4588-B857-24A852D4AC6B}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{C456A002-FA9C-41CD-8594-C3E62C228B0E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{78521940-2AC0-48C1-8FDA-D1D73277549D}" name="Stage"/>
+    <tableColumn id="2" xr3:uid="{9B2BF3B2-235A-423E-965E-1C7C95459918}" name="Parts"/>
+    <tableColumn id="3" xr3:uid="{526CA58F-1C1A-4DC1-986F-101599273A66}" name="Money"/>
+    <tableColumn id="4" xr3:uid="{4B43A162-5756-4258-AF5E-D42903C4BE61}" name="total xp"/>
+    <tableColumn id="5" xr3:uid="{E6E62BB8-4D0A-4928-AD9B-C819A44267CA}" name="enemy types" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6C4F16A-C319-4B3F-B953-45024534211E}" name="Table373" displayName="Table373" ref="B4:C18" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6C4F16A-C319-4B3F-B953-45024534211E}" name="Table373" displayName="Table373" ref="B4:C18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B4:C18" xr:uid="{2D649C6A-AF6B-449D-B354-3EAAD3806A68}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{616AC576-0EB5-41EF-9F20-7A9D6B859165}" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3C51EAF6-5189-4B45-878F-F688AC2CBD73}" name="Value" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{616AC576-0EB5-41EF-9F20-7A9D6B859165}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3C51EAF6-5189-4B45-878F-F688AC2CBD73}" name="Value" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66268302-0BCE-4ACB-8CEC-8DFB5AE81492}" name="Table82" displayName="Table82" ref="C7:G8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="5" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66268302-0BCE-4ACB-8CEC-8DFB5AE81492}" name="Table82" displayName="Table82" ref="C7:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="C7:G8" xr:uid="{186EA7B6-8746-4E45-8800-BC37AB6BF481}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85CBFCAC-813D-499F-822E-B19CE33AD29F}" name="unit type" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F8C363DC-CAE7-4829-A4BF-1E7B8106A36B}" name="spawn type" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{1515FA90-49D7-420B-BDA2-A6DD94663CD5}" name="spawn value" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F5362FE4-81C9-44AF-95BE-220810A5E4AC}" name="type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="% between each if group" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{85CBFCAC-813D-499F-822E-B19CE33AD29F}" name="unit type" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F8C363DC-CAE7-4829-A4BF-1E7B8106A36B}" name="spawn type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{1515FA90-49D7-420B-BDA2-A6DD94663CD5}" name="spawn value" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F5362FE4-81C9-44AF-95BE-220810A5E4AC}" name="type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="% between each if group" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15821,8 +15775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFA1D6E-4D85-4965-AD76-81B1344FD2B8}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15844,15 +15798,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -15922,12 +15876,12 @@
       <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -15991,13 +15945,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="1"/>
       <c r="G8" s="16"/>
       <c r="I8" s="4" t="s">
@@ -16102,10 +16056,10 @@
       <c r="G12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="44"/>
+      <c r="I12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -16126,10 +16080,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="I13" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16149,7 +16103,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J15" s="22">
         <v>5</v>
@@ -16160,47 +16114,47 @@
         <v>38</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I21" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="9:15" x14ac:dyDescent="0.25">
@@ -16269,167 +16223,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="39">
         <v>50</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="40">
         <v>10</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="39">
         <v>50</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="36">
         <v>100</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="36">
         <v>2</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="36">
         <v>100</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="39">
         <v>100</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="39">
         <v>2</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="39">
         <v>200</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="36">
         <v>200</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="36">
         <v>3</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="36">
         <v>300</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="39">
         <v>200</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="39">
         <v>3</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="39">
         <v>400</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16441,77 +16395,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA7233-1D23-4CDC-936E-B58443B6AA05}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="E1" s="30" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30">
+        <v>10</v>
+      </c>
+      <c r="D2" s="30">
+        <v>20</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30">
+        <v>4</v>
+      </c>
+      <c r="C3" s="30">
+        <v>20</v>
+      </c>
+      <c r="D3" s="30">
+        <v>60</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30">
+        <v>5</v>
+      </c>
+      <c r="C4" s="30">
+        <v>30</v>
+      </c>
+      <c r="D4" s="30">
+        <v>110</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -16535,53 +16502,53 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>66</v>
+      <c r="B5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48">
+      <c r="B6" s="33">
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46">
+      <c r="B7" s="31">
         <v>20</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>70</v>
+      <c r="E7" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16602,7 +16569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3867FD-F6CF-46E3-9610-F9906A08081E}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -16614,114 +16581,114 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>87</v>
+      <c r="B4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>89</v>
+      <c r="B5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>100</v>
+      <c r="C7" s="30" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>91</v>
+      <c r="B8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>101</v>
+      <c r="B9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>101</v>
+      <c r="B10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>99</v>
+      <c r="B11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>99</v>
+      <c r="B12" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>91</v>
+      <c r="B13" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>99</v>
+      <c r="B14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16752,46 +16719,46 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="C6" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="45" t="s">
+      <c r="C7" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>108</v>
+      <c r="G7" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>110</v>
+      <c r="G8" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5DD88-FB27-4856-ADF0-D37CD34FE7F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F071D-6DC1-4326-B398-3387F32FA4CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15030" activeTab="5" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
+    <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15030" activeTab="2" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Bullets" sheetId="2" r:id="rId2"/>
-    <sheet name="Stages" sheetId="8" r:id="rId3"/>
-    <sheet name="Player Levels" sheetId="7" r:id="rId4"/>
+    <sheet name="Player Levels" sheetId="8" r:id="rId3"/>
+    <sheet name="Stages" sheetId="7" r:id="rId4"/>
     <sheet name="Unlocks" sheetId="3" r:id="rId5"/>
     <sheet name="Save" sheetId="5" r:id="rId6"/>
     <sheet name="Scripter" sheetId="4" r:id="rId7"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>Jet</t>
   </si>
@@ -156,43 +156,7 @@
     <t>bps</t>
   </si>
   <si>
-    <t>Enemy types</t>
-  </si>
-  <si>
-    <t>buffs</t>
-  </si>
-  <si>
-    <t>waves</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>Stages</t>
-  </si>
-  <si>
     <t>Track Types</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>blue, green</t>
-  </si>
-  <si>
-    <t>blue, blue+</t>
-  </si>
-  <si>
-    <t>B,B+, G</t>
-  </si>
-  <si>
-    <t>stages</t>
-  </si>
-  <si>
-    <t>5/3</t>
-  </si>
-  <si>
-    <t>5/3/5</t>
   </si>
   <si>
     <t>FS= bps</t>
@@ -324,9 +288,6 @@
     <t>date/time</t>
   </si>
   <si>
-    <t>Level Pack Maker Script</t>
-  </si>
-  <si>
     <t>unit type</t>
   </si>
   <si>
@@ -342,16 +303,10 @@
     <t>spawn value</t>
   </si>
   <si>
-    <t>% between each if group</t>
-  </si>
-  <si>
     <t>ms/int/int(1-100)</t>
   </si>
   <si>
     <t>% to spawn between each (sum is 100)</t>
-  </si>
-  <si>
-    <t>int(buff or enenmy type)</t>
   </si>
   <si>
     <t>Parts</t>
@@ -370,6 +325,18 @@
   </si>
   <si>
     <t>enemy types</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Stage Pack Maker arguments</t>
+  </si>
+  <si>
+    <t>int(buff or enemy type)</t>
+  </si>
+  <si>
+    <t>if unit group: % between each</t>
   </si>
 </sst>
 </file>
@@ -448,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,18 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFD9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -646,67 +601,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF70AD47"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF70AD47"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF70AD47"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF70AD47"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF70AD47"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF70AD47"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF70AD47"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF70AD47"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA8D08D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA8D08D"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA8D08D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFA8D08D"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA8D08D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFFFC000"/>
       </left>
       <right/>
@@ -817,10 +711,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -873,13 +767,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,59 +788,32 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,42 +835,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -15470,7 +15329,7 @@
     <tableColumn id="2" xr3:uid="{F8C363DC-CAE7-4829-A4BF-1E7B8106A36B}" name="spawn type" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{1515FA90-49D7-420B-BDA2-A6DD94663CD5}" name="spawn value" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{F5362FE4-81C9-44AF-95BE-220810A5E4AC}" name="type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="% between each if group" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="if unit group: % between each" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15776,7 +15635,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15798,15 +15657,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -15876,12 +15735,12 @@
       <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
+      <c r="I4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -15945,13 +15804,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="1"/>
       <c r="G8" s="16"/>
       <c r="I8" s="4" t="s">
@@ -15985,7 +15844,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16031,7 +15890,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16056,10 +15915,10 @@
       <c r="G12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="52"/>
+      <c r="I12" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -16080,10 +15939,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="I13" s="27" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16103,7 +15962,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J15" s="22">
         <v>5</v>
@@ -16114,47 +15973,47 @@
         <v>38</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="23" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="24" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="23" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I21" s="25" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="9:15" x14ac:dyDescent="0.25">
@@ -16195,12 +16054,12 @@
   <sheetData>
     <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="29" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="29" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -16211,194 +16070,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA2857-3185-4257-A21B-3E40C8136708}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39">
-        <v>50</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="40">
-        <v>10</v>
-      </c>
-      <c r="E3" s="39">
-        <v>1</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="39">
-        <v>50</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36">
-        <v>100</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="36">
-        <v>2</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="36">
-        <v>100</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39">
-        <v>100</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="39">
-        <v>2</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="39">
-        <v>200</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36">
-        <v>200</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="36">
-        <v>3</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="36">
-        <v>300</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>5</v>
-      </c>
-      <c r="B7" s="39">
-        <v>200</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="39">
-        <v>3</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="39">
-        <v>400</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA7233-1D23-4CDC-936E-B58443B6AA05}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16412,19 +16104,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16441,7 +16133,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16458,7 +16150,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16475,7 +16167,12 @@
         <v>110</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="51" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -16491,7 +16188,7 @@
   <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16502,25 +16199,25 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16528,13 +16225,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16548,7 +16245,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16569,7 +16266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3867FD-F6CF-46E3-9610-F9906A08081E}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -16581,33 +16278,33 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="60"/>
+      <c r="B3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -16615,63 +16312,63 @@
         <v>11</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -16706,7 +16403,7 @@
   <dimension ref="C6:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16719,46 +16416,46 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F071D-6DC1-4326-B398-3387F32FA4CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A772F787-04C7-42FA-A379-84D541662393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15030" activeTab="2" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>Jet</t>
   </si>
@@ -189,9 +189,6 @@
     <t>store</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>Use score to buy upgrades for your jet and other things</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>if unit group: % between each</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
 </sst>
 </file>
@@ -714,11 +714,8 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,9 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,16 +808,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,7 +851,24 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -871,9 +877,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -913,6 +916,9 @@
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15286,8 +15292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D974462-C457-4E76-AF2A-034E2F3FC1D4}" name="Table3" displayName="Table3" ref="I13:J21" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="I13:J21" xr:uid="{915AD7C4-37CE-4F6E-8F91-16E76CA8D7E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D974462-C457-4E76-AF2A-034E2F3FC1D4}" name="Table3" displayName="Table3" ref="F20:G28" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="F20:G28" xr:uid="{915AD7C4-37CE-4F6E-8F91-16E76CA8D7E8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1860AD64-5A7C-4EFD-9BEF-508E1183CED8}" name="Buff" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{A1854F03-3007-450C-A254-776282713DA9}" name="amount"/>
@@ -15304,32 +15310,32 @@
     <tableColumn id="2" xr3:uid="{9B2BF3B2-235A-423E-965E-1C7C95459918}" name="Parts"/>
     <tableColumn id="3" xr3:uid="{526CA58F-1C1A-4DC1-986F-101599273A66}" name="Money"/>
     <tableColumn id="4" xr3:uid="{4B43A162-5756-4258-AF5E-D42903C4BE61}" name="total xp"/>
-    <tableColumn id="5" xr3:uid="{E6E62BB8-4D0A-4928-AD9B-C819A44267CA}" name="enemy types" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{E6E62BB8-4D0A-4928-AD9B-C819A44267CA}" name="enemy types" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6C4F16A-C319-4B3F-B953-45024534211E}" name="Table373" displayName="Table373" ref="B4:C18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6C4F16A-C319-4B3F-B953-45024534211E}" name="Table373" displayName="Table373" ref="B4:C18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B4:C18" xr:uid="{2D649C6A-AF6B-449D-B354-3EAAD3806A68}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{616AC576-0EB5-41EF-9F20-7A9D6B859165}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3C51EAF6-5189-4B45-878F-F688AC2CBD73}" name="Value" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{616AC576-0EB5-41EF-9F20-7A9D6B859165}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3C51EAF6-5189-4B45-878F-F688AC2CBD73}" name="Value" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66268302-0BCE-4ACB-8CEC-8DFB5AE81492}" name="Table82" displayName="Table82" ref="C7:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66268302-0BCE-4ACB-8CEC-8DFB5AE81492}" name="Table82" displayName="Table82" ref="C7:G8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="C7:G8" xr:uid="{186EA7B6-8746-4E45-8800-BC37AB6BF481}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85CBFCAC-813D-499F-822E-B19CE33AD29F}" name="unit type" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F8C363DC-CAE7-4829-A4BF-1E7B8106A36B}" name="spawn type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1515FA90-49D7-420B-BDA2-A6DD94663CD5}" name="spawn value" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F5362FE4-81C9-44AF-95BE-220810A5E4AC}" name="type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="if unit group: % between each" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{85CBFCAC-813D-499F-822E-B19CE33AD29F}" name="unit type" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F8C363DC-CAE7-4829-A4BF-1E7B8106A36B}" name="spawn type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1515FA90-49D7-420B-BDA2-A6DD94663CD5}" name="spawn value" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F5362FE4-81C9-44AF-95BE-220810A5E4AC}" name="type" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{945F1409-E837-42D9-B064-BFEFD38284E8}" name="if unit group: % between each" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15635,7 +15641,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15656,379 +15662,396 @@
     <col min="15" max="15" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>50</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>200</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="39" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>120</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="F19" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="G21" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
+      <c r="G23" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5">
-        <v>10</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>33</v>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>33</v>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="5">
-        <v>30</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>37</v>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>20</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>120</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="I14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="O32" s="29"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="27"/>
     </row>
     <row r="34" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="28"/>
+      <c r="E43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16053,12 +16076,12 @@
   </cols>
   <sheetData>
     <row r="26" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -16070,17 +16093,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA2857-3185-4257-A21B-3E40C8136708}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53">
+        <v>32000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16103,76 +16176,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>95</v>
+      <c r="E1" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>3</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <v>10</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>92</v>
+      <c r="E2" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>4</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>20</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <v>60</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>93</v>
+      <c r="E3" s="28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>5</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>30</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>110</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>94</v>
+      <c r="E4" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="51" t="s">
-        <v>96</v>
+      <c r="D33" s="33" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -16188,7 +16261,7 @@
   <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16199,60 +16272,60 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="31">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18">
+        <v>600</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
-        <v>20</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="29">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>52</v>
+      <c r="E7" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16278,114 +16351,114 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="48"/>
+      <c r="B3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>70</v>
+      <c r="B5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>78</v>
+      <c r="B6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>81</v>
+      <c r="C7" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>72</v>
+      <c r="B8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>82</v>
+      <c r="B9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>82</v>
+      <c r="B10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>80</v>
+      <c r="B11" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>80</v>
+      <c r="B12" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>72</v>
+      <c r="B13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16416,46 +16489,46 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="C6" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="C7" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>99</v>
+      <c r="G7" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="C8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A772F787-04C7-42FA-A379-84D541662393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDFE781-EE32-41ED-A017-8820E5E6B477}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15030" activeTab="2" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>Jet</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -809,6 +815,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,6 +843,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,24 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -15641,7 +15647,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15663,15 +15669,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -15701,7 +15707,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -15766,16 +15772,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -15806,7 +15812,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -15832,7 +15838,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -15858,7 +15864,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -15910,16 +15916,16 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="F19" s="39" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="F19" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -15955,8 +15961,8 @@
       <c r="F21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="19">
-        <v>25</v>
+      <c r="G21" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15975,8 +15981,8 @@
       <c r="F22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20">
-        <v>5</v>
+      <c r="G22" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16096,7 +16102,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16106,10 +16112,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16117,7 +16123,7 @@
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="35">
         <v>1</v>
       </c>
     </row>
@@ -16125,7 +16131,7 @@
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="35">
         <v>500</v>
       </c>
     </row>
@@ -16133,7 +16139,7 @@
       <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="35">
         <v>2000</v>
       </c>
     </row>
@@ -16141,7 +16147,7 @@
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="35">
         <v>8000</v>
       </c>
     </row>
@@ -16149,7 +16155,7 @@
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="36">
         <v>32000</v>
       </c>
     </row>
@@ -16272,12 +16278,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
@@ -16351,10 +16357,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
@@ -16489,13 +16495,13 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDFE781-EE32-41ED-A017-8820E5E6B477}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344B13E-7E32-4652-9892-2A9C9C2DFAA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5280" windowWidth="27300" windowHeight="15030" activeTab="2" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>Jet</t>
   </si>
@@ -15647,7 +15647,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15707,7 +15707,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -15812,7 +15812,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -15838,7 +15838,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -15864,7 +15864,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -16071,8 +16071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F503D3D-DCCD-4C9E-86D3-9E26EAF6F7FA}">
   <dimension ref="J26:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16101,7 +16101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA2857-3185-4257-A21B-3E40C8136708}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -16169,7 +16169,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16246,6 +16246,23 @@
         <v>110</v>
       </c>
       <c r="E4" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>5</v>
+      </c>
+      <c r="C5" s="28">
+        <v>80</v>
+      </c>
+      <c r="D5" s="28">
+        <v>220</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -16482,7 +16499,7 @@
   <dimension ref="C6:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoel1\PycharmProjects\MyGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2782AE5-2A15-4F26-97A8-BFFD5F5EE501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC57F5-5CB5-4BAC-8A80-CABC8F75C0D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A5F1F1D4-2199-4D48-963B-7128B4E3785B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
   <si>
     <t>Jet</t>
   </si>
@@ -384,15 +384,9 @@
     <t>red(2)</t>
   </si>
   <si>
-    <t>emp 15%</t>
-  </si>
-  <si>
     <t>red(4)</t>
   </si>
   <si>
-    <t>emp(30%)</t>
-  </si>
-  <si>
     <t>dam 30/60</t>
   </si>
   <si>
@@ -439,6 +433,27 @@
   </si>
   <si>
     <t>Hp ugrades with every stat upgrade with respect to tier</t>
+  </si>
+  <si>
+    <t>emp(60%)</t>
+  </si>
+  <si>
+    <t>bps 800/600</t>
+  </si>
+  <si>
+    <t>dam 1000/1000</t>
+  </si>
+  <si>
+    <t>850/700</t>
+  </si>
+  <si>
+    <t>bps 900/800</t>
+  </si>
+  <si>
+    <t>dam 950/900</t>
+  </si>
+  <si>
+    <t>emp (30%)</t>
   </si>
 </sst>
 </file>
@@ -449,7 +464,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +545,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1095,104 +1116,69 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1202,10 +1188,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,6 +1214,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1709,15 +1730,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1812,16 +1833,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1956,16 +1977,16 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="F19" s="42" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="F19" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -2112,7 +2133,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,211 +2150,228 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="42" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="57" t="s">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="70"/>
+      <c r="C7" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="E7" s="38" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="F7" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="G7" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="H7" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>122</v>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
-      <c r="C10" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
+      <c r="C10" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
-      <c r="C11" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="C11" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>
-      <c r="C12" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="C14" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
+      <c r="C21" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="E22" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="G22" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="72" t="s">
+      <c r="H22" s="40" t="s">
         <v>130</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="71" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -2344,15 +2382,16 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="C14:G19"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2555,12 +2594,12 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
@@ -2634,10 +2673,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="78"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
@@ -2772,13 +2811,13 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
